--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 ED.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 ED.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATTR-651</t>
   </si>
   <si>
@@ -367,6 +370,9 @@
     <t>3.13%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>EHRD-473</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>EPSY-320</t>
   </si>
   <si>
@@ -565,6 +574,9 @@
     <t>10.53%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>HLTH-216</t>
   </si>
   <si>
@@ -589,6 +601,9 @@
     <t>42.86%</t>
   </si>
   <si>
+    <t>1.75%</t>
+  </si>
+  <si>
     <t>HLTH-236</t>
   </si>
   <si>
@@ -604,6 +619,9 @@
     <t>2.17%</t>
   </si>
   <si>
+    <t>1.08%</t>
+  </si>
+  <si>
     <t>HLTH-240</t>
   </si>
   <si>
@@ -613,6 +631,9 @@
     <t>32.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>HLTH-334</t>
   </si>
   <si>
@@ -625,12 +646,12 @@
     <t>16.35%</t>
   </si>
   <si>
-    <t>3.85%</t>
-  </si>
-  <si>
     <t>0.96%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>HLTH-335</t>
   </si>
   <si>
@@ -640,9 +661,6 @@
     <t>60.00%</t>
   </si>
   <si>
-    <t>5.00%</t>
-  </si>
-  <si>
     <t>2.50%</t>
   </si>
   <si>
@@ -661,6 +679,9 @@
     <t>1.32%</t>
   </si>
   <si>
+    <t>1.30%</t>
+  </si>
+  <si>
     <t>HLTH-353</t>
   </si>
   <si>
@@ -673,6 +694,9 @@
     <t>32.14%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>HLTH-354</t>
   </si>
   <si>
@@ -685,6 +709,9 @@
     <t>1.05%</t>
   </si>
   <si>
+    <t>1.04%</t>
+  </si>
+  <si>
     <t>HLTH-403</t>
   </si>
   <si>
@@ -787,6 +814,9 @@
     <t>31.58%</t>
   </si>
   <si>
+    <t>9.52%</t>
+  </si>
+  <si>
     <t>INST-462</t>
   </si>
   <si>
@@ -820,15 +850,15 @@
     <t>1.67%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>THOMAS F</t>
   </si>
   <si>
     <t>95.83%</t>
   </si>
   <si>
-    <t>4.17%</t>
-  </si>
-  <si>
     <t>WAITE L</t>
   </si>
   <si>
@@ -931,9 +961,6 @@
     <t>47.62%</t>
   </si>
   <si>
-    <t>9.52%</t>
-  </si>
-  <si>
     <t>METZGER C</t>
   </si>
   <si>
@@ -964,9 +991,6 @@
     <t>12.90%</t>
   </si>
   <si>
-    <t>3.23%</t>
-  </si>
-  <si>
     <t>KINE-199</t>
   </si>
   <si>
@@ -1030,6 +1054,9 @@
     <t>1.20%</t>
   </si>
   <si>
+    <t>2.35%</t>
+  </si>
+  <si>
     <t>KINE-307</t>
   </si>
   <si>
@@ -1066,6 +1093,9 @@
     <t>4.30%</t>
   </si>
   <si>
+    <t>1.06%</t>
+  </si>
+  <si>
     <t>KINE-406</t>
   </si>
   <si>
@@ -1168,9 +1198,6 @@
     <t>17.24%</t>
   </si>
   <si>
-    <t>3.45%</t>
-  </si>
-  <si>
     <t>RDNG-461</t>
   </si>
   <si>
@@ -1346,9 +1373,6 @@
   </si>
   <si>
     <t>3.77%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
   </si>
   <si>
     <t>TEED-602</t>
@@ -1407,12 +1431,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1706,15 +1729,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H419"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,4558 +1762,5074 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>3.3</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
         <v>3.652</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
         <v>3.929</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
         <v>3.905</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
         <v>3.733</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="n">
         <v>3.762</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="n">
         <v>3.917</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="n">
         <v>3.964</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" t="n">
         <v>3.917</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>62</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" t="n">
         <v>3.963</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="n">
         <v>3.84</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" t="n">
         <v>3.867</v>
       </c>
       <c r="D72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="n">
         <v>3.889</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="n">
         <v>3.771</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" t="n">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" t="n">
         <v>3.615</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" t="n">
         <v>3.963</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" t="n">
         <v>3.857</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" t="n">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="n">
         <v>3.944</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="n">
         <v>3.233</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101" t="s">
         <v>103</v>
-      </c>
-      <c r="F98" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>102</v>
       </c>
       <c r="C101" t="n">
         <v>3.76</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" t="n">
         <v>3.52</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C107" t="n">
         <v>3.594</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H107" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C110" t="n">
         <v>2.692</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C113" t="n">
         <v>3.727</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C116" t="n">
         <v>3.546</v>
       </c>
       <c r="D116" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" t="s">
         <v>126</v>
       </c>
-      <c r="E116" t="s">
-        <v>124</v>
-      </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119" t="n">
         <v>2.45</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E119" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F119" t="s">
+        <v>132</v>
+      </c>
+      <c r="G119" t="s">
+        <v>133</v>
+      </c>
+      <c r="H119" t="s">
         <v>130</v>
       </c>
-      <c r="G119" t="s">
-        <v>131</v>
-      </c>
-      <c r="H119" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C122" t="n">
         <v>3.6335</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C125" t="n">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C128" t="n">
         <v>3.875</v>
       </c>
       <c r="D128" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C131" t="n">
         <v>3.818</v>
       </c>
       <c r="D131" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E131" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C137" t="n">
         <v>3.304</v>
       </c>
       <c r="D137" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I137" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C140" t="n">
         <v>3.412</v>
       </c>
       <c r="D140" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F140" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G140" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I140" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C143" t="n">
         <v>3.867</v>
       </c>
       <c r="D143" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E143" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C146" t="n">
         <v>2.886</v>
       </c>
       <c r="D146" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G146" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C149" t="n">
         <v>3.786</v>
       </c>
       <c r="D149" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C152" t="n">
         <v>3.667</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C155" t="n">
         <v>3.933</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C161" t="n">
         <v>3.5105</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E161" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F161" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C164" t="n">
         <v>3.954</v>
       </c>
       <c r="D164" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C167" t="n">
         <v>3.956</v>
       </c>
       <c r="D167" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E167" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C170" t="n">
         <v>2.4555</v>
       </c>
       <c r="D170" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E170" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G170" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I170" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C174" t="n">
         <v>3.8055</v>
       </c>
       <c r="D174" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E174" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C177" t="n">
         <v>3.5965</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E177" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C180" t="n">
         <v>3.4003</v>
       </c>
       <c r="D180" t="s">
+        <v>197</v>
+      </c>
+      <c r="E180" t="s">
+        <v>198</v>
+      </c>
+      <c r="F180" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" t="s">
+        <v>200</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="B183" t="s">
         <v>192</v>
-      </c>
-      <c r="E180" t="s">
-        <v>193</v>
-      </c>
-      <c r="F180" t="s">
-        <v>194</v>
-      </c>
-      <c r="G180" t="s">
-        <v>195</v>
-      </c>
-      <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>188</v>
       </c>
       <c r="C183" t="n">
         <v>2.88</v>
       </c>
       <c r="D183" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E183" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C186" t="n">
         <v>2.9878</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E186" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F186" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G186" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I186" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C189" t="n">
         <v>3.2</v>
       </c>
       <c r="D189" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E189" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>215</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C192" t="n">
         <v>3.3085</v>
       </c>
       <c r="D192" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E192" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G192" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H192" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I192" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C195" t="n">
         <v>2.7645</v>
       </c>
       <c r="D195" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E195" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F195" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G195" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C198" t="n">
         <v>3.5985</v>
       </c>
       <c r="D198" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F198" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G198" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C201" t="n">
         <v>3.4585</v>
       </c>
       <c r="D201" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E201" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="F201" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G201" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H201" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C204" t="n">
         <v>3.154</v>
       </c>
       <c r="D204" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E204" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F204" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H204" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C207" t="n">
         <v>2.778</v>
       </c>
       <c r="D207" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E207" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H207" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C210" t="n">
         <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H210" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C213" t="n">
         <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G213" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H219" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C222" t="n">
         <v>3.875</v>
       </c>
       <c r="D222" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E222" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H222" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C225" t="n">
         <v>3.667</v>
       </c>
       <c r="D225" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F225" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G225" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H225" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I225" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C228" t="n">
         <v>3.222</v>
       </c>
       <c r="D228" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E228" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F228" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H228" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C231" t="n">
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H231" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C234" t="n">
         <v>3.056</v>
       </c>
       <c r="D234" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E234" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F234" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G234" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H234" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C237" t="n">
         <v>3.174</v>
       </c>
       <c r="D237" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E237" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F237" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="G237" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H237" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E238" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F238" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G238" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H238" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>130</v>
+      </c>
+      <c r="I238" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C241" t="n">
         <v>3.607</v>
       </c>
       <c r="D241" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E241" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H241" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I241" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C244" t="n">
         <v>3.917</v>
       </c>
       <c r="D244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E244" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G244" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H244" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C245" t="n">
         <v>3.969</v>
       </c>
       <c r="D245" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E245" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F245" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G245" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C248" t="n">
         <v>2.941</v>
       </c>
       <c r="D248" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E248" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F248" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G248" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H248" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C249" t="n">
         <v>3.718</v>
       </c>
       <c r="D249" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E249" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F249" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G249" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H249" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I249" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C250" t="n">
         <v>3.917</v>
       </c>
       <c r="D250" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F250" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="G250" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C251" t="n">
         <v>3.885</v>
       </c>
       <c r="D251" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E251" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H251" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C252" t="n">
         <v>3.8695</v>
       </c>
       <c r="D252" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F252" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G252" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H252" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C253" t="n">
         <v>3.808</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C254" t="n">
         <v>3.788</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E254" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F254" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C255" t="n">
         <v>3.727</v>
       </c>
       <c r="D255" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E255" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F255" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G255" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H255" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C256" t="n">
         <v>3.857</v>
       </c>
       <c r="D256" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E256" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F256" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G256" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H256" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C257" t="n">
         <v>3.526</v>
       </c>
       <c r="D257" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E257" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F257" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H257" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>298</v>
+      </c>
+      <c r="I257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C258" t="n">
         <v>3.692</v>
       </c>
       <c r="D258" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E258" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F258" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G258" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H258" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C259" t="n">
         <v>3.615</v>
       </c>
       <c r="D259" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E259" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H259" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C260" t="n">
         <v>3.687</v>
       </c>
       <c r="D260" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E260" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F260" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C261" t="n">
         <v>3.846</v>
       </c>
       <c r="D261" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E261" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F261" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G261" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H261" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C262" t="n">
         <v>3.731</v>
       </c>
       <c r="D262" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E262" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F262" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G262" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H262" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C263" t="n">
         <v>3.5</v>
       </c>
       <c r="D263" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E263" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F263" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G263" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H263" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C264" t="n">
         <v>3.833</v>
       </c>
       <c r="D264" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E264" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F264" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H264" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C265" t="n">
         <v>3.333</v>
       </c>
       <c r="D265" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E265" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F265" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H265" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C266" t="n">
         <v>3.9165</v>
       </c>
       <c r="D266" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E266" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F266" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H266" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="B267" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C267" t="n">
         <v>3.964</v>
       </c>
       <c r="D267" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E267" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H267" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C268" t="n">
         <v>3.917</v>
       </c>
       <c r="D268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E268" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F268" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G268" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H268" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C269" t="n">
         <v>3.722</v>
       </c>
       <c r="D269" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E269" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F269" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G269" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H269" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="B270" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C270" t="n">
         <v>3.806</v>
       </c>
       <c r="D270" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E270" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F270" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="G270" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H270" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="A272" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="B273" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C273" t="n">
         <v>3.636</v>
       </c>
       <c r="D273" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E273" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H273" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C274" t="n">
         <v>3.875</v>
       </c>
       <c r="D274" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E274" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H274" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C275" t="n">
         <v>4</v>
       </c>
       <c r="D275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H275" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="B276" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C276" t="n">
         <v>3.5</v>
       </c>
       <c r="D276" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E276" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F276" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G276" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H276" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C277" t="n">
         <v>2.8</v>
       </c>
       <c r="D277" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E277" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F277" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G277" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H277" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>190</v>
+      </c>
+      <c r="I277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C278" t="n">
         <v>4</v>
       </c>
       <c r="D278" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H278" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="B279" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C279" t="n">
         <v>4</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E279" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F279" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H279" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C280" t="n">
         <v>4</v>
       </c>
       <c r="D280" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E280" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F280" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G280" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H280" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C283" t="n">
         <v>2.7455</v>
       </c>
       <c r="D283" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E283" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F283" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G283" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H283" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I283" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="A285" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C286" t="n">
         <v>2.222</v>
       </c>
       <c r="D286" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E286" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F286" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G286" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H286" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="A288" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C289" t="n">
         <v>2.6</v>
       </c>
       <c r="D289" t="s">
+        <v>13</v>
+      </c>
+      <c r="E289" t="s">
+        <v>327</v>
+      </c>
+      <c r="F289" t="s">
+        <v>190</v>
+      </c>
+      <c r="G289" t="s">
         <v>12</v>
       </c>
-      <c r="E289" t="s">
-        <v>319</v>
-      </c>
-      <c r="F289" t="s">
-        <v>186</v>
-      </c>
-      <c r="G289" t="s">
-        <v>11</v>
-      </c>
       <c r="H289" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="A291" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C292" t="n">
         <v>3.193</v>
       </c>
       <c r="D292" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E292" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F292" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G292" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H292" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I292" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="C295" t="n">
         <v>2.7085</v>
       </c>
       <c r="D295" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E295" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="F295" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G295" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H295" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C298" t="n">
         <v>3.19</v>
       </c>
       <c r="D298" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E298" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F298" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G298" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H298" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C301" t="n">
         <v>3.022</v>
       </c>
       <c r="D301" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E301" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F301" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G301" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H301" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I301" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C304" t="n">
         <v>3.267</v>
       </c>
       <c r="D304" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E304" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F304" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G304" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H304" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C307" t="n">
         <v>3.19</v>
       </c>
       <c r="D307" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E307" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F307" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G307" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H307" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C308" t="n">
         <v>3.2</v>
       </c>
       <c r="D308" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E308" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F308" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G308" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H308" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C311" t="n">
         <v>3.821</v>
       </c>
       <c r="D311" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E311" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F311" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G311" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C314" t="n">
         <v>3.312</v>
       </c>
       <c r="D314" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E314" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F314" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G314" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H314" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C317" t="n">
         <v>3.917</v>
       </c>
       <c r="D317" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E317" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G317" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H317" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C320" t="n">
         <v>3.7</v>
       </c>
       <c r="D320" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E320" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F320" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G320" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H320" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I320" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C323" t="n">
         <v>3.889</v>
       </c>
       <c r="D323" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E323" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F323" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G323" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H323" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C326" t="n">
         <v>3.75</v>
       </c>
       <c r="D326" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E326" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F326" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G326" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H326" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C329" t="n">
         <v>3.615</v>
       </c>
       <c r="D329" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E329" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F329" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G329" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H329" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C332" t="n">
         <v>3.833</v>
       </c>
       <c r="D332" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E332" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F332" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G332" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H332" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I332" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C333" t="n">
         <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E333" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F333" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G333" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H333" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="B336" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C336" t="n">
         <v>4</v>
       </c>
       <c r="D336" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G336" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H336" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I336" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="B339" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C339" t="n">
         <v>3.852</v>
       </c>
       <c r="D339" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E339" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F339" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G339" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H339" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I339" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="B342" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C342" t="n">
         <v>3.621</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E342" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F342" t="s">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="G342" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H342" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="B345" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C345" t="n">
         <v>3.591</v>
       </c>
       <c r="D345" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E345" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F345" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G345" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H345" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I345" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="B348" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C348" t="n">
         <v>3.526</v>
       </c>
       <c r="D348" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E348" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F348" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G348" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H348" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I348" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
       <c r="B351" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C351" t="n">
         <v>3.579</v>
       </c>
       <c r="D351" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E351" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F351" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G351" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H351" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="B354" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="C354" t="n">
         <v>3.905</v>
       </c>
       <c r="D354" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E354" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="F354" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G354" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H354" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
       <c r="B357" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C357" t="n">
         <v>3.85</v>
       </c>
       <c r="D357" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E357" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F357" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="G357" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H357" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="B360" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C360" t="n">
         <v>3.85</v>
       </c>
       <c r="D360" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E360" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F360" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G360" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H360" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I360" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="B363" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C363" t="n">
         <v>4</v>
       </c>
       <c r="D363" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E363" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F363" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G363" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H363" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="B366" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C366" t="n">
         <v>3.933</v>
       </c>
       <c r="D366" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E366" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F366" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G366" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H366" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I366" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
       <c r="B369" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C369" t="n">
         <v>4</v>
       </c>
       <c r="D369" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E369" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F369" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G369" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H369" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I369" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="B370" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C370" t="n">
         <v>4</v>
       </c>
       <c r="D370" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E370" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F370" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G370" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H370" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I370" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="B371" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C371" t="n">
         <v>3.8</v>
       </c>
       <c r="D371" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E371" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F371" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G371" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H371" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I371" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="B374" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C374" t="n">
         <v>3.227</v>
       </c>
       <c r="D374" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E374" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F374" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G374" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H374" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I374" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="B377" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C377" t="n">
         <v>3.269</v>
       </c>
       <c r="D377" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="E377" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="F377" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="G377" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H377" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I377" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="B380" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C380" t="n">
         <v>3.544</v>
       </c>
       <c r="D380" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E380" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F380" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G380" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H380" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I380" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="B381" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C381" t="n">
         <v>4</v>
       </c>
       <c r="D381" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E381" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F381" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G381" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H381" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
       <c r="B384" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C384" t="n">
         <v>4</v>
       </c>
       <c r="D384" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E384" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F384" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G384" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H384" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I384" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
       <c r="B387" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C387" t="n">
         <v>3.643</v>
       </c>
       <c r="D387" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="E387" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="F387" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G387" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H387" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
       <c r="B390" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C390" t="n">
         <v>3.3052</v>
       </c>
       <c r="D390" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E390" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F390" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G390" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H390" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+        <v>205</v>
+      </c>
+      <c r="I390" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
       <c r="B391" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C391" t="n">
         <v>4</v>
       </c>
       <c r="D391" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E391" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F391" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G391" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H391" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I391" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
       <c r="B394" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C394" t="n">
         <v>3.9335</v>
       </c>
       <c r="D394" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E394" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F394" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G394" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H394" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I394" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
       <c r="B397" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C397" t="n">
         <v>3.636</v>
       </c>
       <c r="D397" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E397" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F397" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G397" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H397" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I397" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
       <c r="B400" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C400" t="n">
         <v>3.75</v>
       </c>
       <c r="D400" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E400" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F400" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G400" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H400" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I400" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
       <c r="A402" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
       <c r="B403" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C403" t="n">
         <v>4</v>
       </c>
       <c r="D403" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E403" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F403" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G403" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H403" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I403" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
       <c r="A405" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
       <c r="B406" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C406" t="n">
         <v>3.75</v>
       </c>
       <c r="D406" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E406" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F406" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G406" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H406" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I406" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="A408" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
       <c r="B409" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C409" t="n">
         <v>3.679</v>
       </c>
       <c r="D409" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E409" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="F409" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="G409" t="s">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="H409" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I409" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
       <c r="A411" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="B412" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C412" t="n">
         <v>3.951</v>
       </c>
       <c r="D412" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E412" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F412" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G412" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H412" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I412" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="A414" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="B415" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C415" t="n">
         <v>4</v>
       </c>
       <c r="D415" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E415" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F415" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G415" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H415" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I415" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="B416" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C416" t="n">
         <v>3.958</v>
       </c>
       <c r="D416" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E416" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="F416" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G416" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I416" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
       <c r="A418" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
       <c r="B419" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C419" t="n">
         <v>3.78</v>
       </c>
       <c r="D419" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E419" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F419" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G419" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H419" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I419" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 ED.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 ED.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
   <si>
     <t>Course</t>
   </si>
@@ -76,6 +76,12 @@
     <t>100.00%</t>
   </si>
   <si>
+    <t>BIED-616</t>
+  </si>
+  <si>
+    <t>LARA-ALECIO R</t>
+  </si>
+  <si>
     <t>CEHD-603</t>
   </si>
   <si>
@@ -139,6 +145,12 @@
     <t>4.76%</t>
   </si>
   <si>
+    <t>EDAD-624</t>
+  </si>
+  <si>
+    <t>WEBB-JOHNSON G</t>
+  </si>
+  <si>
     <t>EDAD-630</t>
   </si>
   <si>
@@ -157,6 +169,18 @@
     <t>MADSEN J</t>
   </si>
   <si>
+    <t>EDAD-669</t>
+  </si>
+  <si>
+    <t>PECK-PARROTT K</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
     <t>EDCI-602</t>
   </si>
   <si>
@@ -616,9 +640,6 @@
     <t>HLTH-334</t>
   </si>
   <si>
-    <t>25.00%</t>
-  </si>
-  <si>
     <t>53.85%</t>
   </si>
   <si>
@@ -736,6 +757,12 @@
     <t>WYLIE W</t>
   </si>
   <si>
+    <t>HLTH-611</t>
+  </si>
+  <si>
+    <t>JONES-MCKYER E</t>
+  </si>
+  <si>
     <t>HLTH-635</t>
   </si>
   <si>
@@ -787,6 +814,21 @@
     <t>31.58%</t>
   </si>
   <si>
+    <t>INST-322</t>
+  </si>
+  <si>
+    <t>HILL-JACKSON V</t>
+  </si>
+  <si>
+    <t>76.60%</t>
+  </si>
+  <si>
+    <t>19.15%</t>
+  </si>
+  <si>
+    <t>4.26%</t>
+  </si>
+  <si>
     <t>INST-462</t>
   </si>
   <si>
@@ -871,6 +913,9 @@
     <t>SPRINGER S</t>
   </si>
   <si>
+    <t>SHERMAN L</t>
+  </si>
+  <si>
     <t>GRANT M</t>
   </si>
   <si>
@@ -925,6 +970,21 @@
     <t>CHAPMAN D</t>
   </si>
   <si>
+    <t>METZGER C</t>
+  </si>
+  <si>
+    <t>91.53%</t>
+  </si>
+  <si>
+    <t>6.78%</t>
+  </si>
+  <si>
+    <t>1.69%</t>
+  </si>
+  <si>
+    <t>SCHMITT E</t>
+  </si>
+  <si>
     <t>BUI S</t>
   </si>
   <si>
@@ -934,24 +994,6 @@
     <t>9.52%</t>
   </si>
   <si>
-    <t>METZGER C</t>
-  </si>
-  <si>
-    <t>91.53%</t>
-  </si>
-  <si>
-    <t>6.78%</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>SCHMITT E</t>
-  </si>
-  <si>
-    <t>SHERMAN L</t>
-  </si>
-  <si>
     <t>ARMSTRONG C</t>
   </si>
   <si>
@@ -1315,6 +1357,12 @@
     <t>6.45%</t>
   </si>
   <si>
+    <t>SPMT-485</t>
+  </si>
+  <si>
+    <t>WELTY-PEACHY J</t>
+  </si>
+  <si>
     <t>SPMT-623</t>
   </si>
   <si>
@@ -1331,9 +1379,6 @@
   </si>
   <si>
     <t>RAE W</t>
-  </si>
-  <si>
-    <t>75.00%</t>
   </si>
   <si>
     <t>TEED-302</t>
@@ -1706,7 +1751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H419"/>
+  <dimension ref="A1:H437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1960,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
@@ -1936,37 +1981,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -1987,69 +2032,69 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="n">
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.652</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>31</v>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.652</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
         <v>32</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -2071,13 +2116,13 @@
         <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>3.929</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2091,24 +2136,24 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2119,24 +2164,24 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
         <v>42</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2211,143 +2256,143 @@
         <v>48</v>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="n">
         <v>3.733</v>
       </c>
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="n">
         <v>3.762</v>
       </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
+      <c r="D58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>61</v>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D59" t="s">
         <v>62</v>
       </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2361,21 +2406,21 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3.964</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2389,21 +2434,21 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C65" t="n">
-        <v>3.963</v>
+        <v>3.917</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -2417,12 +2462,12 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
@@ -2443,130 +2488,130 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="D69" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
         <v>70</v>
       </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
         <v>73</v>
       </c>
-      <c r="C72" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C74" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="D74" t="s">
         <v>74</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E74" t="s">
         <v>75</v>
       </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="C75" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>80</v>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C78" t="n">
-        <v>3.771</v>
+        <v>3.84</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3.867</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -2580,210 +2625,210 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
-      <c r="C84" t="n">
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.771</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.963</v>
+      </c>
+      <c r="D93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="n">
         <v>3.615</v>
       </c>
-      <c r="D84" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="D85" t="s">
-        <v>66</v>
-      </c>
-      <c r="E85" t="s">
-        <v>67</v>
-      </c>
-      <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="n">
         <v>3.857</v>
       </c>
-      <c r="D88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>102</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="n">
         <v>4</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D100" t="s">
         <v>19</v>
       </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.944</v>
-      </c>
-      <c r="D95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" t="n">
-        <v>3.233</v>
-      </c>
-      <c r="D98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F98" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>105</v>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C101" t="n">
-        <v>3.76</v>
+        <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -2794,24 +2839,24 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C104" t="n">
-        <v>3.52</v>
+        <v>3.944</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
@@ -2822,52 +2867,52 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C107" t="n">
-        <v>3.594</v>
+        <v>3.233</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C110" t="n">
-        <v>2.692</v>
+        <v>3.76</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F110" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -2878,24 +2923,24 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C113" t="n">
-        <v>3.727</v>
+        <v>3.52</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -2906,77 +2951,77 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C116" t="n">
-        <v>3.546</v>
+        <v>3.594</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E116" t="s">
+        <v>123</v>
+      </c>
+      <c r="F116" t="s">
         <v>124</v>
       </c>
-      <c r="F116" t="s">
-        <v>83</v>
-      </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C119" t="n">
-        <v>2.45</v>
+        <v>2.692</v>
       </c>
       <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" t="s">
         <v>128</v>
       </c>
-      <c r="E119" t="s">
-        <v>129</v>
-      </c>
-      <c r="F119" t="s">
-        <v>130</v>
-      </c>
       <c r="G119" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C122" t="n">
-        <v>3.6335</v>
+        <v>3.727</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
@@ -2990,24 +3035,24 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="B125" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3.546</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -3018,49 +3063,49 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="B128" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D128" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" t="s">
+        <v>137</v>
+      </c>
+      <c r="F128" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" t="s">
         <v>139</v>
       </c>
-      <c r="C128" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D128" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" t="s">
-        <v>141</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="B131" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C131" t="n">
-        <v>3.818</v>
+        <v>3.6335</v>
       </c>
       <c r="D131" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" t="s">
         <v>143</v>
-      </c>
-      <c r="E131" t="s">
-        <v>144</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -3074,12 +3119,12 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
@@ -3110,69 +3155,69 @@
         <v>147</v>
       </c>
       <c r="C137" t="n">
-        <v>3.304</v>
+        <v>3.875</v>
       </c>
       <c r="D137" t="s">
         <v>148</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" t="s">
         <v>152</v>
       </c>
-      <c r="C140" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="D140" t="s">
-        <v>153</v>
-      </c>
-      <c r="E140" t="s">
-        <v>154</v>
-      </c>
       <c r="F140" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C143" t="n">
-        <v>3.867</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -3186,80 +3231,80 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" t="s">
+        <v>157</v>
+      </c>
+      <c r="G146" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" t="s">
         <v>158</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.886</v>
-      </c>
-      <c r="D146" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" t="s">
-        <v>160</v>
-      </c>
-      <c r="G146" t="s">
-        <v>161</v>
-      </c>
-      <c r="H146" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C149" t="n">
-        <v>3.786</v>
+        <v>3.412</v>
       </c>
       <c r="D149" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C152" t="n">
-        <v>3.667</v>
+        <v>3.867</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F152" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -3270,52 +3315,52 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="D155" t="s">
+        <v>167</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
+        <v>168</v>
+      </c>
+      <c r="G155" t="s">
         <v>169</v>
       </c>
-      <c r="C155" t="n">
-        <v>3.933</v>
-      </c>
-      <c r="D155" t="s">
-        <v>49</v>
-      </c>
-      <c r="E155" t="s">
-        <v>50</v>
-      </c>
-      <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>3.786</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -3326,24 +3371,24 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C161" t="n">
-        <v>3.5105</v>
+        <v>3.667</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E161" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -3354,21 +3399,21 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="C164" t="n">
-        <v>3.954</v>
+        <v>3.933</v>
       </c>
       <c r="D164" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
@@ -3382,21 +3427,21 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C167" t="n">
-        <v>3.956</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -3410,159 +3455,159 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C170" t="n">
-        <v>2.4555</v>
+        <v>3.5105</v>
       </c>
       <c r="D170" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E170" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G170" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.954</v>
+      </c>
+      <c r="D173" t="s">
+        <v>183</v>
+      </c>
+      <c r="E173" t="s">
+        <v>92</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
         <v>184</v>
       </c>
-      <c r="C173" t="n">
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.956</v>
+      </c>
+      <c r="D176" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" t="s">
+        <v>158</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.4555</v>
+      </c>
+      <c r="D179" t="s">
+        <v>188</v>
+      </c>
+      <c r="E179" t="s">
+        <v>189</v>
+      </c>
+      <c r="F179" t="s">
+        <v>188</v>
+      </c>
+      <c r="G179" t="s">
+        <v>190</v>
+      </c>
+      <c r="H179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" t="n">
         <v>4</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D182" t="s">
         <v>19</v>
       </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
-      <c r="H173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>185</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.8055</v>
-      </c>
-      <c r="D174" t="s">
-        <v>106</v>
-      </c>
-      <c r="E174" t="s">
-        <v>186</v>
-      </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
-      <c r="H174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>188</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.5965</v>
-      </c>
-      <c r="D177" t="s">
-        <v>189</v>
-      </c>
-      <c r="E177" t="s">
-        <v>190</v>
-      </c>
-      <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.4003</v>
-      </c>
-      <c r="D180" t="s">
-        <v>192</v>
-      </c>
-      <c r="E180" t="s">
-        <v>193</v>
-      </c>
-      <c r="F180" t="s">
-        <v>194</v>
-      </c>
-      <c r="G180" t="s">
-        <v>195</v>
-      </c>
-      <c r="H180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>196</v>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>12</v>
+      </c>
+      <c r="H182" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="B183" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C183" t="n">
-        <v>2.88</v>
+        <v>3.8055</v>
       </c>
       <c r="D183" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="E183" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F183" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -3573,83 +3618,83 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C186" t="n">
-        <v>2.9878</v>
+        <v>3.5965</v>
       </c>
       <c r="D186" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E186" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F186" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="H186" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="B189" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C189" t="n">
-        <v>3.2</v>
+        <v>3.4003</v>
       </c>
       <c r="D189" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E189" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G189" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="H189" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C192" t="n">
-        <v>3.3085</v>
+        <v>2.88</v>
       </c>
       <c r="D192" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E192" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F192" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G192" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="H192" t="s">
         <v>12</v>
@@ -3657,83 +3702,83 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="B195" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C195" t="n">
-        <v>2.7645</v>
+        <v>2.9878</v>
       </c>
       <c r="D195" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="E195" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F195" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G195" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="B198" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C198" t="n">
-        <v>3.5985</v>
+        <v>3.2</v>
       </c>
       <c r="D198" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="F198" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G198" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C201" t="n">
-        <v>3.4585</v>
+        <v>3.3085</v>
       </c>
       <c r="D201" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E201" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F201" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="G201" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -3741,55 +3786,55 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C204" t="n">
-        <v>3.154</v>
+        <v>2.7645</v>
       </c>
       <c r="D204" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E204" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F204" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H204" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C207" t="n">
-        <v>2.778</v>
+        <v>3.5985</v>
       </c>
       <c r="D207" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="E207" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G207" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
@@ -3797,27 +3842,27 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="B210" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C210" t="n">
-        <v>4</v>
+        <v>3.4585</v>
       </c>
       <c r="D210" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="G210" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -3825,52 +3870,52 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>3.154</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="F213" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="G213" t="s">
         <v>12</v>
       </c>
       <c r="H213" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="B216" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>2.778</v>
       </c>
       <c r="D216" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G216" t="s">
         <v>12</v>
@@ -3881,12 +3926,12 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="B219" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="C219" t="n">
         <v>4</v>
@@ -3909,21 +3954,21 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C222" t="n">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="E222" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="F222" t="s">
         <v>12</v>
@@ -3945,16 +3990,16 @@
         <v>244</v>
       </c>
       <c r="C225" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
       </c>
       <c r="F225" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G225" t="s">
         <v>12</v>
@@ -3970,19 +4015,19 @@
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C228" t="n">
-        <v>3.222</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="E228" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="F228" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="G228" t="s">
         <v>12</v>
@@ -3993,12 +4038,12 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C231" t="n">
         <v>4</v>
@@ -4026,22 +4071,22 @@
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="C234" t="n">
-        <v>3.056</v>
+        <v>3.875</v>
       </c>
       <c r="D234" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E234" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="F234" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G234" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="H234" t="s">
         <v>12</v>
@@ -4049,180 +4094,139 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="B237" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C237" t="n">
-        <v>3.174</v>
+        <v>3.667</v>
       </c>
       <c r="D237" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="E237" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" t="s">
+        <v>112</v>
+      </c>
+      <c r="G237" t="s">
+        <v>12</v>
+      </c>
+      <c r="H237" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
         <v>253</v>
       </c>
-      <c r="F237" t="s">
-        <v>254</v>
-      </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
-      <c r="H237" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="B238" t="s">
+      <c r="C240" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="D240" t="s">
         <v>255</v>
       </c>
-      <c r="C238" t="n">
-        <v>3</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="E240" t="s">
+        <v>240</v>
+      </c>
+      <c r="F240" t="s">
         <v>256</v>
       </c>
-      <c r="E238" t="s">
-        <v>181</v>
-      </c>
-      <c r="F238" t="s">
-        <v>180</v>
-      </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
-      <c r="H238" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
+      <c r="G240" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
-      <c r="B241" t="s">
+    <row r="243" spans="1:8">
+      <c r="B243" t="s">
+        <v>196</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" t="s">
+        <v>12</v>
+      </c>
+      <c r="G243" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
         <v>258</v>
       </c>
-      <c r="C241" t="n">
-        <v>3.607</v>
-      </c>
-      <c r="D241" t="s">
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>172</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="D246" t="s">
+        <v>255</v>
+      </c>
+      <c r="E246" t="s">
+        <v>240</v>
+      </c>
+      <c r="F246" t="s">
+        <v>108</v>
+      </c>
+      <c r="G246" t="s">
+        <v>112</v>
+      </c>
+      <c r="H246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
         <v>259</v>
-      </c>
-      <c r="E241" t="s">
-        <v>200</v>
-      </c>
-      <c r="F241" t="s">
-        <v>36</v>
-      </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
-      <c r="H241" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>261</v>
-      </c>
-      <c r="C244" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D244" t="s">
-        <v>54</v>
-      </c>
-      <c r="E244" t="s">
-        <v>55</v>
-      </c>
-      <c r="F244" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
-      <c r="H244" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="B245" t="s">
-        <v>73</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="D245" t="s">
-        <v>262</v>
-      </c>
-      <c r="E245" t="s">
-        <v>116</v>
-      </c>
-      <c r="F245" t="s">
-        <v>12</v>
-      </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
-      <c r="H245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="B248" t="s">
-        <v>179</v>
-      </c>
-      <c r="C248" t="n">
-        <v>2.941</v>
-      </c>
-      <c r="D248" t="s">
-        <v>154</v>
-      </c>
-      <c r="E248" t="s">
-        <v>264</v>
-      </c>
-      <c r="F248" t="s">
-        <v>265</v>
-      </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
-      <c r="H248" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="B249" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C249" t="n">
-        <v>3.718</v>
+        <v>3.174</v>
       </c>
       <c r="D249" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="E249" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="F249" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G249" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -4230,88 +4234,47 @@
     </row>
     <row r="250" spans="1:8">
       <c r="B250" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C250" t="n">
-        <v>3.917</v>
+        <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="F250" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="G250" t="s">
         <v>12</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="B251" t="s">
-        <v>271</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3.885</v>
-      </c>
-      <c r="D251" t="s">
-        <v>272</v>
-      </c>
-      <c r="E251" t="s">
-        <v>273</v>
-      </c>
-      <c r="F251" t="s">
-        <v>12</v>
-      </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
-      <c r="H251" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="B252" t="s">
-        <v>274</v>
-      </c>
-      <c r="C252" t="n">
-        <v>3.8695</v>
-      </c>
-      <c r="D252" t="s">
-        <v>275</v>
-      </c>
-      <c r="E252" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" t="s">
-        <v>116</v>
-      </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
-      <c r="H252" t="s">
-        <v>116</v>
+      <c r="A252" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="B253" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C253" t="n">
-        <v>3.808</v>
+        <v>3.723</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="G253" t="s">
         <v>12</v>
@@ -4320,67 +4283,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
-      <c r="B254" t="s">
-        <v>279</v>
-      </c>
-      <c r="C254" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="D254" t="s">
-        <v>280</v>
-      </c>
-      <c r="E254" t="s">
-        <v>281</v>
-      </c>
-      <c r="F254" t="s">
-        <v>282</v>
-      </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
-      <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="255" spans="1:8">
-      <c r="B255" t="s">
-        <v>283</v>
-      </c>
-      <c r="C255" t="n">
-        <v>3.727</v>
-      </c>
-      <c r="D255" t="s">
-        <v>123</v>
-      </c>
-      <c r="E255" t="s">
-        <v>124</v>
-      </c>
-      <c r="F255" t="s">
-        <v>12</v>
-      </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
-      <c r="H255" t="s">
-        <v>12</v>
+      <c r="A255" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="B256" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C256" t="n">
-        <v>3.857</v>
+        <v>3.607</v>
       </c>
       <c r="D256" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="E256" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F256" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G256" t="s">
         <v>12</v>
@@ -4389,64 +4311,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
-      <c r="B257" t="s">
-        <v>285</v>
-      </c>
-      <c r="C257" t="n">
-        <v>3.526</v>
-      </c>
-      <c r="D257" t="s">
-        <v>286</v>
-      </c>
-      <c r="E257" t="s">
-        <v>287</v>
-      </c>
-      <c r="F257" t="s">
-        <v>288</v>
-      </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
-      <c r="H257" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>289</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="D258" t="s">
-        <v>290</v>
-      </c>
-      <c r="E258" t="s">
-        <v>291</v>
-      </c>
-      <c r="F258" t="s">
-        <v>292</v>
-      </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
-      <c r="H258" t="s">
-        <v>12</v>
+      <c r="A258" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="B259" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C259" t="n">
-        <v>3.615</v>
+        <v>3.917</v>
       </c>
       <c r="D259" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="E259" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F259" t="s">
         <v>12</v>
@@ -4460,19 +4341,19 @@
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="C260" t="n">
-        <v>3.687</v>
+        <v>3.969</v>
       </c>
       <c r="D260" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E260" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="F260" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
@@ -4481,93 +4362,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>297</v>
-      </c>
-      <c r="C261" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D261" t="s">
-        <v>298</v>
-      </c>
-      <c r="E261" t="s">
-        <v>291</v>
-      </c>
-      <c r="F261" t="s">
-        <v>12</v>
-      </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
-      <c r="H261" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="262" spans="1:8">
-      <c r="B262" t="s">
-        <v>299</v>
-      </c>
-      <c r="C262" t="n">
-        <v>3.731</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="A262" t="s">
         <v>277</v>
-      </c>
-      <c r="E262" t="s">
-        <v>291</v>
-      </c>
-      <c r="F262" t="s">
-        <v>300</v>
-      </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
-      <c r="H262" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="C263" t="n">
-        <v>3.5</v>
+        <v>2.941</v>
       </c>
       <c r="D263" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E263" t="s">
         <v>278</v>
       </c>
       <c r="F263" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="G263" t="s">
         <v>12</v>
       </c>
       <c r="H263" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C264" t="n">
-        <v>3.833</v>
+        <v>3.718</v>
       </c>
       <c r="D264" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="E264" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F264" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
@@ -4575,19 +4415,19 @@
     </row>
     <row r="265" spans="1:8">
       <c r="B265" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C265" t="n">
-        <v>3.333</v>
+        <v>3.917</v>
       </c>
       <c r="D265" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="E265" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="F265" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G265" t="s">
         <v>12</v>
@@ -4598,19 +4438,19 @@
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C266" t="n">
-        <v>3.9165</v>
+        <v>3.885</v>
       </c>
       <c r="D266" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E266" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F266" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -4621,39 +4461,39 @@
     </row>
     <row r="267" spans="1:8">
       <c r="B267" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C267" t="n">
-        <v>3.964</v>
+        <v>3.8695</v>
       </c>
       <c r="D267" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="E267" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F267" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G267" t="s">
         <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="B268" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C268" t="n">
-        <v>3.917</v>
+        <v>3.808</v>
       </c>
       <c r="D268" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="E268" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="F268" t="s">
         <v>12</v>
@@ -4667,19 +4507,19 @@
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C269" t="n">
-        <v>3.722</v>
+        <v>3.788</v>
       </c>
       <c r="D269" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="E269" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="F269" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="G269" t="s">
         <v>12</v>
@@ -4690,19 +4530,19 @@
     </row>
     <row r="270" spans="1:8">
       <c r="B270" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C270" t="n">
-        <v>3.806</v>
+        <v>3.727</v>
       </c>
       <c r="D270" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="E270" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="F270" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="G270" t="s">
         <v>12</v>
@@ -4711,49 +4551,90 @@
         <v>12</v>
       </c>
     </row>
+    <row r="271" spans="1:8">
+      <c r="B271" t="s">
+        <v>298</v>
+      </c>
+      <c r="C271" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D271" t="s">
+        <v>101</v>
+      </c>
+      <c r="E271" t="s">
+        <v>102</v>
+      </c>
+      <c r="F271" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>317</v>
+      <c r="B272" t="s">
+        <v>299</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D272" t="s">
+        <v>62</v>
+      </c>
+      <c r="E272" t="s">
+        <v>63</v>
+      </c>
+      <c r="F272" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" t="s">
+        <v>12</v>
+      </c>
+      <c r="H272" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="B273" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C273" t="n">
-        <v>3.636</v>
+        <v>3.526</v>
       </c>
       <c r="D273" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="E273" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="F273" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H273" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="B274" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C274" t="n">
-        <v>3.875</v>
+        <v>3.692</v>
       </c>
       <c r="D274" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="E274" t="s">
-        <v>115</v>
+        <v>306</v>
       </c>
       <c r="F274" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="G274" t="s">
         <v>12</v>
@@ -4764,16 +4645,16 @@
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>3.615</v>
       </c>
       <c r="D275" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E275" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F275" t="s">
         <v>12</v>
@@ -4787,19 +4668,19 @@
     </row>
     <row r="276" spans="1:8">
       <c r="B276" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C276" t="n">
-        <v>3.5</v>
+        <v>3.687</v>
       </c>
       <c r="D276" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E276" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="F276" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G276" t="s">
         <v>12</v>
@@ -4810,85 +4691,85 @@
     </row>
     <row r="277" spans="1:8">
       <c r="B277" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C277" t="n">
-        <v>2.8</v>
+        <v>3.846</v>
       </c>
       <c r="D277" t="s">
-        <v>207</v>
+        <v>313</v>
       </c>
       <c r="E277" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="F277" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G277" t="s">
         <v>12</v>
       </c>
       <c r="H277" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>3.731</v>
       </c>
       <c r="D278" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E278" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="F278" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="G278" t="s">
         <v>12</v>
       </c>
       <c r="H278" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="B279" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D279" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="E279" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="F279" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="G279" t="s">
         <v>12</v>
       </c>
       <c r="H279" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="B280" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>3.833</v>
       </c>
       <c r="D280" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E280" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F280" t="s">
         <v>12</v>
@@ -4900,141 +4781,305 @@
         <v>12</v>
       </c>
     </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>318</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.9165</v>
+      </c>
+      <c r="D281" t="s">
+        <v>319</v>
+      </c>
+      <c r="E281" t="s">
+        <v>320</v>
+      </c>
+      <c r="F281" t="s">
+        <v>321</v>
+      </c>
+      <c r="G281" t="s">
+        <v>12</v>
+      </c>
+      <c r="H281" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>323</v>
+      <c r="B282" t="s">
+        <v>322</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="D282" t="s">
+        <v>66</v>
+      </c>
+      <c r="E282" t="s">
+        <v>67</v>
+      </c>
+      <c r="F282" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282" t="s">
+        <v>12</v>
+      </c>
+      <c r="H282" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="B283" t="s">
+        <v>323</v>
+      </c>
+      <c r="C283" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D283" t="s">
+        <v>198</v>
+      </c>
+      <c r="E283" t="s">
         <v>324</v>
       </c>
-      <c r="C283" t="n">
-        <v>2.7455</v>
-      </c>
-      <c r="D283" t="s">
+      <c r="F283" t="s">
         <v>325</v>
       </c>
-      <c r="E283" t="s">
+      <c r="G283" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
         <v>326</v>
       </c>
-      <c r="F283" t="s">
+      <c r="C284" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="D284" t="s">
+        <v>175</v>
+      </c>
+      <c r="E284" t="s">
+        <v>108</v>
+      </c>
+      <c r="F284" t="s">
+        <v>87</v>
+      </c>
+      <c r="G284" t="s">
+        <v>12</v>
+      </c>
+      <c r="H284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
         <v>327</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
-      <c r="H283" t="s">
+      <c r="C285" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="D285" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
+      <c r="E285" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="B286" t="s">
-        <v>179</v>
-      </c>
-      <c r="C286" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="D286" t="s">
-        <v>79</v>
-      </c>
-      <c r="E286" t="s">
-        <v>247</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="F285" t="s">
         <v>330</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
-      <c r="H286" t="s">
-        <v>79</v>
+      <c r="G285" t="s">
+        <v>12</v>
+      </c>
+      <c r="H285" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>331</v>
+      <c r="B288" t="s">
+        <v>298</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D288" t="s">
+        <v>151</v>
+      </c>
+      <c r="E288" t="s">
+        <v>91</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288" t="s">
+        <v>91</v>
+      </c>
+      <c r="H288" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="B289" t="s">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="C289" t="n">
-        <v>2.6</v>
+        <v>3.875</v>
       </c>
       <c r="D289" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="E289" t="s">
-        <v>319</v>
+        <v>123</v>
       </c>
       <c r="F289" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="G289" t="s">
+        <v>12</v>
+      </c>
+      <c r="H289" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>318</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>19</v>
+      </c>
+      <c r="E290" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>332</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D291" t="s">
+        <v>333</v>
+      </c>
+      <c r="E291" t="s">
         <v>11</v>
       </c>
-      <c r="H289" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
-        <v>332</v>
+      <c r="F291" t="s">
+        <v>194</v>
+      </c>
+      <c r="G291" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="B292" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C292" t="n">
-        <v>3.193</v>
+        <v>2.8</v>
       </c>
       <c r="D292" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="E292" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" t="s">
+        <v>194</v>
+      </c>
+      <c r="G292" t="s">
+        <v>12</v>
+      </c>
+      <c r="H292" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="B293" t="s">
         <v>335</v>
       </c>
-      <c r="F292" t="s">
+      <c r="C293" t="n">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
         <v>336</v>
       </c>
-      <c r="G292" t="s">
-        <v>337</v>
-      </c>
-      <c r="H292" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
-      <c r="A294" t="s">
-        <v>338</v>
+      <c r="C294" t="n">
+        <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="s">
+        <v>12</v>
+      </c>
+      <c r="H294" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="B295" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C295" t="n">
-        <v>2.7085</v>
+        <v>4</v>
       </c>
       <c r="D295" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E295" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="F295" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="G295" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H295" t="s">
         <v>12</v>
@@ -5042,83 +5087,83 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="B298" t="s">
+        <v>338</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2.7455</v>
+      </c>
+      <c r="D298" t="s">
+        <v>339</v>
+      </c>
+      <c r="E298" t="s">
+        <v>340</v>
+      </c>
+      <c r="F298" t="s">
+        <v>341</v>
+      </c>
+      <c r="G298" t="s">
+        <v>12</v>
+      </c>
+      <c r="H298" t="s">
         <v>342</v>
-      </c>
-      <c r="C298" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="D298" t="s">
-        <v>190</v>
-      </c>
-      <c r="E298" t="s">
-        <v>233</v>
-      </c>
-      <c r="F298" t="s">
-        <v>343</v>
-      </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
-      <c r="H298" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="B301" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="C301" t="n">
-        <v>3.022</v>
+        <v>2.222</v>
       </c>
       <c r="D301" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="E301" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="F301" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G301" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="H301" t="s">
-        <v>349</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="B304" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="C304" t="n">
-        <v>3.267</v>
+        <v>2.6</v>
       </c>
       <c r="D304" t="s">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="E304" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F304" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="G304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H304" t="s">
         <v>12</v>
@@ -5126,187 +5171,187 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="B307" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C307" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="D307" t="s">
+        <v>348</v>
+      </c>
+      <c r="E307" t="s">
+        <v>349</v>
+      </c>
+      <c r="F307" t="s">
+        <v>350</v>
+      </c>
+      <c r="G307" t="s">
+        <v>351</v>
+      </c>
+      <c r="H307" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="B310" t="s">
+        <v>353</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.7085</v>
+      </c>
+      <c r="D310" t="s">
+        <v>87</v>
+      </c>
+      <c r="E310" t="s">
+        <v>354</v>
+      </c>
+      <c r="F310" t="s">
+        <v>240</v>
+      </c>
+      <c r="G310" t="s">
+        <v>75</v>
+      </c>
+      <c r="H310" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="B313" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" t="n">
         <v>3.19</v>
       </c>
-      <c r="D307" t="s">
-        <v>233</v>
-      </c>
-      <c r="E307" t="s">
-        <v>354</v>
-      </c>
-      <c r="F307" t="s">
-        <v>94</v>
-      </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
-      <c r="H307" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>355</v>
-      </c>
-      <c r="C308" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D308" t="s">
-        <v>17</v>
-      </c>
-      <c r="E308" t="s">
-        <v>17</v>
-      </c>
-      <c r="F308" t="s">
-        <v>186</v>
-      </c>
-      <c r="G308" t="s">
-        <v>12</v>
-      </c>
-      <c r="H308" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
+      <c r="D313" t="s">
+        <v>198</v>
+      </c>
+      <c r="E313" t="s">
+        <v>240</v>
+      </c>
+      <c r="F313" t="s">
         <v>357</v>
       </c>
-      <c r="C311" t="n">
-        <v>3.821</v>
-      </c>
-      <c r="D311" t="s">
-        <v>93</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="G313" t="s">
+        <v>12</v>
+      </c>
+      <c r="H313" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" t="s">
         <v>358</v>
       </c>
-      <c r="F311" t="s">
-        <v>59</v>
-      </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
-      <c r="H311" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
+      <c r="C316" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D316" t="s">
         <v>360</v>
       </c>
-      <c r="C314" t="n">
-        <v>3.312</v>
-      </c>
-      <c r="D314" t="s">
+      <c r="E316" t="s">
         <v>361</v>
       </c>
-      <c r="E314" t="s">
+      <c r="F316" t="s">
         <v>362</v>
       </c>
-      <c r="F314" t="s">
+      <c r="G316" t="s">
         <v>363</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
-      <c r="H314" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
+      <c r="H316" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
-      <c r="B317" t="s">
-        <v>324</v>
-      </c>
-      <c r="C317" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D317" t="s">
-        <v>54</v>
-      </c>
-      <c r="E317" t="s">
-        <v>55</v>
-      </c>
-      <c r="F317" t="s">
-        <v>12</v>
-      </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
-      <c r="H317" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="319" spans="1:8">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
-      <c r="B320" t="s">
-        <v>360</v>
-      </c>
-      <c r="C320" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D320" t="s">
-        <v>319</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="C319" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="D319" t="s">
+        <v>341</v>
+      </c>
+      <c r="E319" t="s">
         <v>366</v>
       </c>
-      <c r="F320" t="s">
-        <v>12</v>
-      </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
-      <c r="H320" t="s">
-        <v>12</v>
+      <c r="F319" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" t="s">
+        <v>12</v>
+      </c>
+      <c r="H319" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" t="s">
-        <v>367</v>
+      <c r="B322" t="s">
+        <v>334</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D322" t="s">
+        <v>240</v>
+      </c>
+      <c r="E322" t="s">
+        <v>368</v>
+      </c>
+      <c r="F322" t="s">
+        <v>102</v>
+      </c>
+      <c r="G322" t="s">
+        <v>12</v>
+      </c>
+      <c r="H322" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="B323" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C323" t="n">
-        <v>3.889</v>
+        <v>3.2</v>
       </c>
       <c r="D323" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F323" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="G323" t="s">
         <v>12</v>
@@ -5317,24 +5362,24 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="B326" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C326" t="n">
-        <v>3.75</v>
+        <v>3.821</v>
       </c>
       <c r="D326" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="E326" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="F326" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G326" t="s">
         <v>12</v>
@@ -5345,24 +5390,24 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="B329" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C329" t="n">
-        <v>3.615</v>
+        <v>3.312</v>
       </c>
       <c r="D329" t="s">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="E329" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F329" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="G329" t="s">
         <v>12</v>
@@ -5373,187 +5418,187 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="B332" t="s">
+        <v>338</v>
+      </c>
+      <c r="C332" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D332" t="s">
+        <v>62</v>
+      </c>
+      <c r="E332" t="s">
+        <v>63</v>
+      </c>
+      <c r="F332" t="s">
+        <v>12</v>
+      </c>
+      <c r="G332" t="s">
+        <v>12</v>
+      </c>
+      <c r="H332" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="B335" t="s">
         <v>374</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C335" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>333</v>
+      </c>
+      <c r="E335" t="s">
+        <v>380</v>
+      </c>
+      <c r="F335" t="s">
+        <v>12</v>
+      </c>
+      <c r="G335" t="s">
+        <v>12</v>
+      </c>
+      <c r="H335" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>382</v>
+      </c>
+      <c r="C338" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D338" t="s">
+        <v>289</v>
+      </c>
+      <c r="E338" t="s">
+        <v>12</v>
+      </c>
+      <c r="F338" t="s">
+        <v>377</v>
+      </c>
+      <c r="G338" t="s">
+        <v>12</v>
+      </c>
+      <c r="H338" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="B341" t="s">
+        <v>382</v>
+      </c>
+      <c r="C341" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D341" t="s">
+        <v>251</v>
+      </c>
+      <c r="E341" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341" t="s">
+        <v>123</v>
+      </c>
+      <c r="G341" t="s">
+        <v>12</v>
+      </c>
+      <c r="H341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>385</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.615</v>
+      </c>
+      <c r="D344" t="s">
+        <v>127</v>
+      </c>
+      <c r="E344" t="s">
+        <v>386</v>
+      </c>
+      <c r="F344" t="s">
+        <v>307</v>
+      </c>
+      <c r="G344" t="s">
+        <v>12</v>
+      </c>
+      <c r="H344" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
+        <v>388</v>
+      </c>
+      <c r="C347" t="n">
         <v>3.833</v>
       </c>
-      <c r="D332" t="s">
-        <v>167</v>
-      </c>
-      <c r="E332" t="s">
-        <v>104</v>
-      </c>
-      <c r="F332" t="s">
-        <v>12</v>
-      </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
-      <c r="H332" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="B333" t="s">
-        <v>375</v>
-      </c>
-      <c r="C333" t="n">
-        <v>4</v>
-      </c>
-      <c r="D333" t="s">
-        <v>19</v>
-      </c>
-      <c r="E333" t="s">
-        <v>12</v>
-      </c>
-      <c r="F333" t="s">
-        <v>12</v>
-      </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
-      <c r="H333" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>375</v>
-      </c>
-      <c r="C336" t="n">
-        <v>4</v>
-      </c>
-      <c r="D336" t="s">
-        <v>19</v>
-      </c>
-      <c r="E336" t="s">
-        <v>12</v>
-      </c>
-      <c r="F336" t="s">
-        <v>12</v>
-      </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
-      <c r="H336" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="B339" t="s">
-        <v>378</v>
-      </c>
-      <c r="C339" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="D339" t="s">
-        <v>78</v>
-      </c>
-      <c r="E339" t="s">
-        <v>379</v>
-      </c>
-      <c r="F339" t="s">
-        <v>67</v>
-      </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
-      <c r="H339" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="A341" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
-      <c r="B342" t="s">
-        <v>381</v>
-      </c>
-      <c r="C342" t="n">
-        <v>3.621</v>
-      </c>
-      <c r="D342" t="s">
-        <v>382</v>
-      </c>
-      <c r="E342" t="s">
-        <v>383</v>
-      </c>
-      <c r="F342" t="s">
-        <v>384</v>
-      </c>
-      <c r="G342" t="s">
-        <v>12</v>
-      </c>
-      <c r="H342" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
-      <c r="A344" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
-      <c r="B345" t="s">
-        <v>386</v>
-      </c>
-      <c r="C345" t="n">
-        <v>3.591</v>
-      </c>
-      <c r="D345" t="s">
-        <v>387</v>
-      </c>
-      <c r="E345" t="s">
-        <v>388</v>
-      </c>
-      <c r="F345" t="s">
-        <v>83</v>
-      </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
-      <c r="H345" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
-      <c r="A347" t="s">
-        <v>389</v>
+      <c r="D347" t="s">
+        <v>175</v>
+      </c>
+      <c r="E347" t="s">
+        <v>112</v>
+      </c>
+      <c r="F347" t="s">
+        <v>12</v>
+      </c>
+      <c r="G347" t="s">
+        <v>12</v>
+      </c>
+      <c r="H347" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:8">
       <c r="B348" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C348" t="n">
-        <v>3.526</v>
+        <v>4</v>
       </c>
       <c r="D348" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="E348" t="s">
-        <v>392</v>
+        <v>12</v>
       </c>
       <c r="F348" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="G348" t="s">
         <v>12</v>
@@ -5564,27 +5609,27 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="B351" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C351" t="n">
-        <v>3.579</v>
+        <v>4</v>
       </c>
       <c r="D351" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="E351" t="s">
-        <v>392</v>
+        <v>12</v>
       </c>
       <c r="F351" t="s">
         <v>12</v>
       </c>
       <c r="G351" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="H351" t="s">
         <v>12</v>
@@ -5592,24 +5637,24 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="B354" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C354" t="n">
-        <v>3.905</v>
+        <v>3.852</v>
       </c>
       <c r="D354" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E354" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="F354" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G354" t="s">
         <v>12</v>
@@ -5620,52 +5665,52 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="B357" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C357" t="n">
-        <v>3.85</v>
+        <v>3.621</v>
       </c>
       <c r="D357" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="E357" t="s">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="F357" t="s">
-        <v>208</v>
+        <v>398</v>
       </c>
       <c r="G357" t="s">
         <v>12</v>
       </c>
       <c r="H357" t="s">
-        <v>12</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="B360" t="s">
+        <v>400</v>
+      </c>
+      <c r="C360" t="n">
+        <v>3.591</v>
+      </c>
+      <c r="D360" t="s">
         <v>401</v>
       </c>
-      <c r="C360" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="D360" t="s">
-        <v>140</v>
-      </c>
       <c r="E360" t="s">
-        <v>141</v>
+        <v>402</v>
       </c>
       <c r="F360" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G360" t="s">
         <v>12</v>
@@ -5676,24 +5721,24 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="B363" t="s">
-        <v>27</v>
+        <v>404</v>
       </c>
       <c r="C363" t="n">
-        <v>4</v>
+        <v>3.526</v>
       </c>
       <c r="D363" t="s">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="E363" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="F363" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="G363" t="s">
         <v>12</v>
@@ -5704,27 +5749,27 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="B366" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C366" t="n">
-        <v>3.933</v>
+        <v>3.579</v>
       </c>
       <c r="D366" t="s">
-        <v>49</v>
+        <v>409</v>
       </c>
       <c r="E366" t="s">
-        <v>50</v>
+        <v>406</v>
       </c>
       <c r="F366" t="s">
         <v>12</v>
       </c>
       <c r="G366" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H366" t="s">
         <v>12</v>
@@ -5732,174 +5777,133 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="B369" t="s">
-        <v>27</v>
+        <v>411</v>
       </c>
       <c r="C369" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="D369" t="s">
+        <v>60</v>
+      </c>
+      <c r="E369" t="s">
+        <v>325</v>
+      </c>
+      <c r="F369" t="s">
+        <v>12</v>
+      </c>
+      <c r="G369" t="s">
+        <v>12</v>
+      </c>
+      <c r="H369" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="B372" t="s">
+        <v>413</v>
+      </c>
+      <c r="C372" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D372" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" t="s">
+        <v>215</v>
+      </c>
+      <c r="F372" t="s">
+        <v>215</v>
+      </c>
+      <c r="G372" t="s">
+        <v>12</v>
+      </c>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="B375" t="s">
+        <v>415</v>
+      </c>
+      <c r="C375" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D375" t="s">
+        <v>148</v>
+      </c>
+      <c r="E375" t="s">
+        <v>149</v>
+      </c>
+      <c r="F375" t="s">
+        <v>12</v>
+      </c>
+      <c r="G375" t="s">
+        <v>12</v>
+      </c>
+      <c r="H375" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="B378" t="s">
+        <v>29</v>
+      </c>
+      <c r="C378" t="n">
         <v>4</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D378" t="s">
         <v>19</v>
       </c>
-      <c r="E369" t="s">
-        <v>12</v>
-      </c>
-      <c r="F369" t="s">
-        <v>12</v>
-      </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
-      <c r="H369" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="B370" t="s">
-        <v>406</v>
-      </c>
-      <c r="C370" t="n">
-        <v>4</v>
-      </c>
-      <c r="D370" t="s">
-        <v>19</v>
-      </c>
-      <c r="E370" t="s">
-        <v>12</v>
-      </c>
-      <c r="F370" t="s">
-        <v>12</v>
-      </c>
-      <c r="G370" t="s">
-        <v>12</v>
-      </c>
-      <c r="H370" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="B371" t="s">
-        <v>407</v>
-      </c>
-      <c r="C371" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D371" t="s">
-        <v>106</v>
-      </c>
-      <c r="E371" t="s">
-        <v>186</v>
-      </c>
-      <c r="F371" t="s">
-        <v>12</v>
-      </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
-      <c r="H371" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="A373" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
-      <c r="B374" t="s">
-        <v>409</v>
-      </c>
-      <c r="C374" t="n">
-        <v>3.227</v>
-      </c>
-      <c r="D374" t="s">
-        <v>17</v>
-      </c>
-      <c r="E374" t="s">
-        <v>410</v>
-      </c>
-      <c r="F374" t="s">
-        <v>111</v>
-      </c>
-      <c r="G374" t="s">
-        <v>411</v>
-      </c>
-      <c r="H374" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="A376" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="B377" t="s">
-        <v>333</v>
-      </c>
-      <c r="C377" t="n">
-        <v>3.269</v>
-      </c>
-      <c r="D377" t="s">
-        <v>413</v>
-      </c>
-      <c r="E377" t="s">
-        <v>414</v>
-      </c>
-      <c r="F377" t="s">
-        <v>415</v>
-      </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
-      <c r="H377" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="A379" t="s">
-        <v>416</v>
+      <c r="E378" t="s">
+        <v>12</v>
+      </c>
+      <c r="F378" t="s">
+        <v>12</v>
+      </c>
+      <c r="G378" t="s">
+        <v>12</v>
+      </c>
+      <c r="H378" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:8">
-      <c r="B380" t="s">
+      <c r="A380" t="s">
         <v>417</v>
-      </c>
-      <c r="C380" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="D380" t="s">
-        <v>418</v>
-      </c>
-      <c r="E380" t="s">
-        <v>419</v>
-      </c>
-      <c r="F380" t="s">
-        <v>420</v>
-      </c>
-      <c r="G380" t="s">
-        <v>421</v>
-      </c>
-      <c r="H380" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="B381" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C381" t="n">
-        <v>4</v>
+        <v>3.933</v>
       </c>
       <c r="D381" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E381" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F381" t="s">
         <v>12</v>
@@ -5913,12 +5917,12 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="B384" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
       <c r="C384" t="n">
         <v>4</v>
@@ -5939,214 +5943,255 @@
         <v>12</v>
       </c>
     </row>
+    <row r="385" spans="1:8">
+      <c r="B385" t="s">
+        <v>420</v>
+      </c>
+      <c r="C385" t="n">
+        <v>4</v>
+      </c>
+      <c r="D385" t="s">
+        <v>19</v>
+      </c>
+      <c r="E385" t="s">
+        <v>12</v>
+      </c>
+      <c r="F385" t="s">
+        <v>12</v>
+      </c>
+      <c r="G385" t="s">
+        <v>12</v>
+      </c>
+      <c r="H385" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="386" spans="1:8">
-      <c r="A386" t="s">
+      <c r="B386" t="s">
+        <v>421</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D386" t="s">
+        <v>114</v>
+      </c>
+      <c r="E386" t="s">
+        <v>194</v>
+      </c>
+      <c r="F386" t="s">
+        <v>12</v>
+      </c>
+      <c r="G386" t="s">
+        <v>12</v>
+      </c>
+      <c r="H386" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="B389" t="s">
+        <v>423</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="D389" t="s">
+        <v>17</v>
+      </c>
+      <c r="E389" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="387" spans="1:8">
-      <c r="B387" t="s">
-        <v>409</v>
-      </c>
-      <c r="C387" t="n">
+      <c r="F389" t="s">
+        <v>119</v>
+      </c>
+      <c r="G389" t="s">
+        <v>425</v>
+      </c>
+      <c r="H389" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="B392" t="s">
+        <v>347</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="D392" t="s">
+        <v>427</v>
+      </c>
+      <c r="E392" t="s">
+        <v>428</v>
+      </c>
+      <c r="F392" t="s">
+        <v>429</v>
+      </c>
+      <c r="G392" t="s">
+        <v>12</v>
+      </c>
+      <c r="H392" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="B395" t="s">
+        <v>431</v>
+      </c>
+      <c r="C395" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D395" t="s">
+        <v>432</v>
+      </c>
+      <c r="E395" t="s">
+        <v>433</v>
+      </c>
+      <c r="F395" t="s">
+        <v>434</v>
+      </c>
+      <c r="G395" t="s">
+        <v>435</v>
+      </c>
+      <c r="H395" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="B396" t="s">
+        <v>436</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4</v>
+      </c>
+      <c r="D396" t="s">
+        <v>19</v>
+      </c>
+      <c r="E396" t="s">
+        <v>12</v>
+      </c>
+      <c r="F396" t="s">
+        <v>12</v>
+      </c>
+      <c r="G396" t="s">
+        <v>12</v>
+      </c>
+      <c r="H396" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="B399" t="s">
+        <v>436</v>
+      </c>
+      <c r="C399" t="n">
+        <v>4</v>
+      </c>
+      <c r="D399" t="s">
+        <v>19</v>
+      </c>
+      <c r="E399" t="s">
+        <v>12</v>
+      </c>
+      <c r="F399" t="s">
+        <v>12</v>
+      </c>
+      <c r="G399" t="s">
+        <v>12</v>
+      </c>
+      <c r="H399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
+      <c r="B402" t="s">
+        <v>423</v>
+      </c>
+      <c r="C402" t="n">
         <v>3.643</v>
       </c>
-      <c r="D387" t="s">
-        <v>425</v>
-      </c>
-      <c r="E387" t="s">
-        <v>426</v>
-      </c>
-      <c r="F387" t="s">
-        <v>36</v>
-      </c>
-      <c r="G387" t="s">
-        <v>12</v>
-      </c>
-      <c r="H387" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="B390" t="s">
-        <v>428</v>
-      </c>
-      <c r="C390" t="n">
+      <c r="D402" t="s">
+        <v>439</v>
+      </c>
+      <c r="E402" t="s">
+        <v>440</v>
+      </c>
+      <c r="F402" t="s">
+        <v>38</v>
+      </c>
+      <c r="G402" t="s">
+        <v>12</v>
+      </c>
+      <c r="H402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="B405" t="s">
+        <v>442</v>
+      </c>
+      <c r="C405" t="n">
         <v>3.3052</v>
       </c>
-      <c r="D390" t="s">
-        <v>429</v>
-      </c>
-      <c r="E390" t="s">
-        <v>233</v>
-      </c>
-      <c r="F390" t="s">
-        <v>292</v>
-      </c>
-      <c r="G390" t="s">
-        <v>12</v>
-      </c>
-      <c r="H390" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="B391" t="s">
-        <v>422</v>
-      </c>
-      <c r="C391" t="n">
-        <v>4</v>
-      </c>
-      <c r="D391" t="s">
-        <v>19</v>
-      </c>
-      <c r="E391" t="s">
-        <v>12</v>
-      </c>
-      <c r="F391" t="s">
-        <v>12</v>
-      </c>
-      <c r="G391" t="s">
-        <v>12</v>
-      </c>
-      <c r="H391" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="B394" t="s">
-        <v>409</v>
-      </c>
-      <c r="C394" t="n">
-        <v>3.9335</v>
-      </c>
-      <c r="D394" t="s">
-        <v>431</v>
-      </c>
-      <c r="E394" t="s">
-        <v>432</v>
-      </c>
-      <c r="F394" t="s">
-        <v>12</v>
-      </c>
-      <c r="G394" t="s">
-        <v>12</v>
-      </c>
-      <c r="H394" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="B397" t="s">
-        <v>409</v>
-      </c>
-      <c r="C397" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D397" t="s">
-        <v>126</v>
-      </c>
-      <c r="E397" t="s">
-        <v>229</v>
-      </c>
-      <c r="F397" t="s">
-        <v>12</v>
-      </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
-      <c r="H397" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
-      <c r="A399" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="B400" t="s">
-        <v>428</v>
-      </c>
-      <c r="C400" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D400" t="s">
-        <v>123</v>
-      </c>
-      <c r="E400" t="s">
-        <v>124</v>
-      </c>
-      <c r="F400" t="s">
-        <v>12</v>
-      </c>
-      <c r="G400" t="s">
-        <v>12</v>
-      </c>
-      <c r="H400" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
-      <c r="A402" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="B403" t="s">
-        <v>436</v>
-      </c>
-      <c r="C403" t="n">
-        <v>4</v>
-      </c>
-      <c r="D403" t="s">
-        <v>19</v>
-      </c>
-      <c r="E403" t="s">
-        <v>12</v>
-      </c>
-      <c r="F403" t="s">
-        <v>12</v>
-      </c>
-      <c r="G403" t="s">
-        <v>12</v>
-      </c>
-      <c r="H403" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="A405" t="s">
-        <v>437</v>
+      <c r="D405" t="s">
+        <v>443</v>
+      </c>
+      <c r="E405" t="s">
+        <v>240</v>
+      </c>
+      <c r="F405" t="s">
+        <v>307</v>
+      </c>
+      <c r="G405" t="s">
+        <v>12</v>
+      </c>
+      <c r="H405" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="406" spans="1:8">
       <c r="B406" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C406" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D406" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="E406" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F406" t="s">
         <v>12</v>
@@ -6160,27 +6205,27 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="B409" t="s">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="C409" t="n">
-        <v>3.679</v>
+        <v>3.9335</v>
       </c>
       <c r="D409" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E409" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F409" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="G409" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="H409" t="s">
         <v>12</v>
@@ -6188,21 +6233,21 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="B412" t="s">
-        <v>96</v>
+        <v>448</v>
       </c>
       <c r="C412" t="n">
-        <v>3.951</v>
+        <v>3.143</v>
       </c>
       <c r="D412" t="s">
-        <v>446</v>
+        <v>102</v>
       </c>
       <c r="E412" t="s">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="F412" t="s">
         <v>12</v>
@@ -6216,80 +6261,248 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="B415" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
       <c r="C415" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D415" t="s">
+        <v>134</v>
+      </c>
+      <c r="E415" t="s">
+        <v>236</v>
+      </c>
+      <c r="F415" t="s">
+        <v>12</v>
+      </c>
+      <c r="G415" t="s">
+        <v>12</v>
+      </c>
+      <c r="H415" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="B418" t="s">
+        <v>442</v>
+      </c>
+      <c r="C418" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D418" t="s">
+        <v>131</v>
+      </c>
+      <c r="E418" t="s">
+        <v>132</v>
+      </c>
+      <c r="F418" t="s">
+        <v>12</v>
+      </c>
+      <c r="G418" t="s">
+        <v>12</v>
+      </c>
+      <c r="H418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
+      <c r="B421" t="s">
+        <v>452</v>
+      </c>
+      <c r="C421" t="n">
         <v>4</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D421" t="s">
         <v>19</v>
       </c>
-      <c r="E415" t="s">
-        <v>12</v>
-      </c>
-      <c r="F415" t="s">
-        <v>12</v>
-      </c>
-      <c r="G415" t="s">
-        <v>12</v>
-      </c>
-      <c r="H415" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
-      <c r="B416" t="s">
-        <v>386</v>
-      </c>
-      <c r="C416" t="n">
+      <c r="E421" t="s">
+        <v>12</v>
+      </c>
+      <c r="F421" t="s">
+        <v>12</v>
+      </c>
+      <c r="G421" t="s">
+        <v>12</v>
+      </c>
+      <c r="H421" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="B424" t="s">
+        <v>454</v>
+      </c>
+      <c r="C424" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D424" t="s">
+        <v>53</v>
+      </c>
+      <c r="E424" t="s">
+        <v>54</v>
+      </c>
+      <c r="F424" t="s">
+        <v>12</v>
+      </c>
+      <c r="G424" t="s">
+        <v>12</v>
+      </c>
+      <c r="H424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="B427" t="s">
+        <v>85</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3.679</v>
+      </c>
+      <c r="D427" t="s">
+        <v>456</v>
+      </c>
+      <c r="E427" t="s">
+        <v>457</v>
+      </c>
+      <c r="F427" t="s">
+        <v>458</v>
+      </c>
+      <c r="G427" t="s">
+        <v>459</v>
+      </c>
+      <c r="H427" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="B430" t="s">
+        <v>104</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="D430" t="s">
+        <v>461</v>
+      </c>
+      <c r="E430" t="s">
+        <v>462</v>
+      </c>
+      <c r="F430" t="s">
+        <v>12</v>
+      </c>
+      <c r="G430" t="s">
+        <v>12</v>
+      </c>
+      <c r="H430" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="B433" t="s">
+        <v>104</v>
+      </c>
+      <c r="C433" t="n">
+        <v>4</v>
+      </c>
+      <c r="D433" t="s">
+        <v>19</v>
+      </c>
+      <c r="E433" t="s">
+        <v>12</v>
+      </c>
+      <c r="F433" t="s">
+        <v>12</v>
+      </c>
+      <c r="G433" t="s">
+        <v>12</v>
+      </c>
+      <c r="H433" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="B434" t="s">
+        <v>400</v>
+      </c>
+      <c r="C434" t="n">
         <v>3.958</v>
       </c>
-      <c r="D416" t="s">
-        <v>269</v>
-      </c>
-      <c r="E416" t="s">
-        <v>270</v>
-      </c>
-      <c r="F416" t="s">
-        <v>12</v>
-      </c>
-      <c r="G416" t="s">
-        <v>12</v>
-      </c>
-      <c r="H416" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="A418" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
-        <v>57</v>
-      </c>
-      <c r="C419" t="n">
+      <c r="D434" t="s">
+        <v>283</v>
+      </c>
+      <c r="E434" t="s">
+        <v>284</v>
+      </c>
+      <c r="F434" t="s">
+        <v>12</v>
+      </c>
+      <c r="G434" t="s">
+        <v>12</v>
+      </c>
+      <c r="H434" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="B437" t="s">
+        <v>65</v>
+      </c>
+      <c r="C437" t="n">
         <v>3.78</v>
       </c>
-      <c r="D419" t="s">
-        <v>450</v>
-      </c>
-      <c r="E419" t="s">
-        <v>451</v>
-      </c>
-      <c r="F419" t="s">
-        <v>447</v>
-      </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
-      <c r="H419" t="s">
+      <c r="D437" t="s">
+        <v>465</v>
+      </c>
+      <c r="E437" t="s">
+        <v>466</v>
+      </c>
+      <c r="F437" t="s">
+        <v>462</v>
+      </c>
+      <c r="G437" t="s">
+        <v>12</v>
+      </c>
+      <c r="H437" t="s">
         <v>12</v>
       </c>
     </row>
